--- a/Lists/Devoi_FC.xlsx
+++ b/Lists/Devoi_FC.xlsx
@@ -848,7 +848,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +902,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>136</v>
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>136</v>
@@ -1158,10 +1158,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>137</v>
@@ -1222,10 +1222,10 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>137</v>
@@ -1414,10 +1414,10 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>2</v>
@@ -1638,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
         <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
       </c>
       <c r="H25" t="s">
         <v>2</v>
@@ -1670,10 +1670,10 @@
         <v>113</v>
       </c>
       <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
         <v>114</v>
-      </c>
-      <c r="G26" t="s">
-        <v>115</v>
       </c>
       <c r="H26" t="s">
         <v>136</v>
@@ -1830,10 +1830,10 @@
         <v>113</v>
       </c>
       <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
         <v>134</v>
-      </c>
-      <c r="G31" t="s">
-        <v>135</v>
       </c>
       <c r="H31" t="s">
         <v>2</v>
